--- a/infor_new.xlsx
+++ b/infor_new.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-1540" yWindow="0" windowWidth="28860" windowHeight="14820"/>
+    <workbookView xWindow="3620" yWindow="420" windowWidth="25600" windowHeight="14880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
   <si>
     <t>学校</t>
   </si>
@@ -65,9 +65,6 @@
     <t>是</t>
   </si>
   <si>
-    <t>德州达拉斯</t>
-  </si>
-  <si>
     <t>http://www.utdallas.edu/admissions/graduate/steps-to-admission/</t>
   </si>
   <si>
@@ -81,9 +78,6 @@
   </si>
   <si>
     <t>WQxhlz922100</t>
-  </si>
-  <si>
-    <t>佛罗里达</t>
   </si>
   <si>
     <t>http://gradcatalog.ufl.edu/content.php?catoid=10&amp;navoid=2019</t>
@@ -136,9 +130,6 @@
     <t>https://www.gradmit.buffalo.edu/etw/ets/et.asp?nxappid=GRA&amp;nxmid=start</t>
   </si>
   <si>
-    <t>WANGQIAO41</t>
-  </si>
-  <si>
     <t>http://admissions.tamu.edu/graduate/apply?_ga=1.174522666.92863917.1481212038</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -185,29 +176,77 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>wqxhlz</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WQxhlz922100!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> February 1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>For material that must be sent to the department directly (such as GRE and TOEFL scores) our institution code is: 2927. A department code is no longer required.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WQxhlz922100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">
 https://app.applyyourself.com/AYApplicantLogin/fl_ApplicantConnectLogin.asp?id=up-is
 </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>http://bbs.taisha.org/thread-1915519-1-1.html</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>德州达拉斯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛罗里达</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WANGQIAO41</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://admissionservices.rutgers.edu/graduate/programStatus.app</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>wqxhlz</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>WQxhlz922100!</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> February 1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>For material that must be sent to the department directly (such as GRE and TOEFL scores) our institution code is: 2927. A department code is no longer required.</t>
+    <t>http://www.utdallas.edu/status</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017/2/1   181004726</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>he name of the first street where you lived.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>laodong   jian   yuncheng</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>qxw170230   WQxhlz922100!</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -215,7 +254,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,6 +282,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -261,15 +308,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -288,9 +341,14 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="justify"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -585,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:U29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -600,9 +658,11 @@
     <col min="5" max="5" width="19.83203125" customWidth="1"/>
     <col min="8" max="8" width="33.1640625" customWidth="1"/>
     <col min="10" max="10" width="52.1640625" customWidth="1"/>
+    <col min="15" max="15" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -640,24 +700,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="84">
+    <row r="2" spans="1:21" ht="84">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -667,157 +727,207 @@
       <c r="L2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="84">
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+    </row>
+    <row r="3" spans="1:21" ht="98">
       <c r="A3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I3" s="1"/>
       <c r="K3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="98">
+      <c r="N3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="R3" s="6">
+        <v>2021380156</v>
+      </c>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+    </row>
+    <row r="4" spans="1:21" ht="98">
       <c r="A4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="D4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="140">
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+    </row>
+    <row r="5" spans="1:21" ht="140">
       <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="D5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="F5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D5" s="5">
-        <v>42767</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="70">
+      <c r="L5" s="4"/>
+      <c r="N5" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O5" s="6">
+        <v>181004726</v>
+      </c>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+    </row>
+    <row r="6" spans="1:21" ht="70">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="1">
-        <v>13971</v>
+        <v>55</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I6" s="1"/>
+      <c r="L6" t="s">
+        <v>52</v>
+      </c>
       <c r="M6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="98">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="98">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:21">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -828,7 +938,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:21">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -839,7 +949,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:21">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -850,7 +960,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:21">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -861,7 +971,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:21">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -872,7 +982,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:21">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -883,7 +993,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:21">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -894,7 +1004,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:21">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -905,7 +1015,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:21">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
